--- a/src/main/resources/templates/bankflowerrordataimportTemplate.xlsx
+++ b/src/main/resources/templates/bankflowerrordataimportTemplate.xlsx
@@ -127,6 +127,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -144,15 +148,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-&lt;1&gt;Excel中红色字段为必填字段,黑色字段为选填或有条件必填字段
-&lt;2&gt;借方金额与贷方金额不能同时为空；                                                                                                                                                                              &lt;3&gt;请勿修改下列表格格式
-&lt;4&gt;请注意输入框中的弹框提醒说明</t>
+      <t xml:space="preserve">                                                                                                                                                                           &lt;1&gt;请勿修改下列表格格式</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误信息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +583,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -597,9 +594,11 @@
     <col min="4" max="4" width="22.875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="10" customWidth="1"/>
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0.75" customWidth="1"/>
+    <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="19.25" customWidth="1"/>
     <col min="15" max="15" width="0.375" customWidth="1"/>
     <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
@@ -614,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -742,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -751,20 +750,20 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="23">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入币种" sqref="J1:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入银行备注" sqref="N1:N1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入序号，不能重复" sqref="A1:A1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入公司代码" sqref="B1:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入银行交易日期，格式为”yyyyMMdd“，例如：20190101" sqref="C1:C1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入银行流水号，不能重复输入相同的" sqref="D1:D1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入对方银行户名" sqref="F1:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，借方金额与贷方金额不能同时为空" sqref="H1:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入对方开户行" sqref="E1:E1048576"/>
+  <dataValidations count="25">
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入币种" sqref="J1:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入银行备注" sqref="N1:N2 N4:N1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入序号，不能重复" sqref="A1:A1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入公司代码" sqref="B1:B1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入银行交易日期，格式为”yyyyMMdd“，例如：20190101" sqref="C1:C1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入银行流水号，不能重复输入相同的" sqref="D1:D1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入对方银行户名" sqref="F1:F1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，借方金额与贷方金额不能同时为空" sqref="I1:I1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入对方开户行" sqref="E1:E1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入对方银行账号" sqref="G1:G1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入流水状态" sqref="K1:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入交易性质" sqref="L1:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入财资备注" sqref="M1:M1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入流水状态" sqref="K1:K1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入交易性质" sqref="L1:L1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入财资备注" sqref="M1:M1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入流水ID" sqref="O1:O1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入账户余额" sqref="P1:P1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入本方开户行" sqref="Q1:Q1048576"/>
@@ -775,6 +774,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入打标结果" sqref="V1:V1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入打标结果说明" sqref="W1:W1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入MD5校验" sqref="X1:X1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，借方金额与贷方金额不能同时为空" sqref="H1:H1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入银行备注" sqref="N3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
